--- a/packages/ls-components/src/assets/files/222.xlsx
+++ b/packages/ls-components/src/assets/files/222.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSNpmPackages\ls-web-components\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NpmPackages\ls-components-plus\packages\ls-components\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6253704-D9AA-4069-BB87-9353F6B52269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721877A-0780-4FF6-A274-A182B007F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>大萨达所多</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>委屈而去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年9月4日19:19:05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,17 +445,17 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +466,7 @@
         <v>1.23123123123123E+35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -472,18 +477,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="102.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="102.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45539.804988425924</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -504,14 +519,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>

--- a/packages/ls-components/src/assets/files/222.xlsx
+++ b/packages/ls-components/src/assets/files/222.xlsx
@@ -1,98 +1,423 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NpmPackages\ls-components-plus\packages\ls-components\src\assets\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721877A-0780-4FF6-A274-A182B007F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21168" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="测试1" sheetId="1" r:id="rId1"/>
     <sheet name="测试2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>大萨达所多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啊实打实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>As大萨达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试测试测试测试测试测试测试测试测试测试测试测试</t>
+  </si>
+  <si>
+    <t>2024年9月4日19:19:05</t>
+  </si>
+  <si>
+    <t>驱蚊器翁</t>
+  </si>
+  <si>
+    <t>委屈而去</t>
+  </si>
+  <si>
+    <t>实打实大所大</t>
   </si>
   <si>
     <t>大大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿萨达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实打实大所大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱蚊器翁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委屈而去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024年9月4日19:19:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,32 +425,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -141,19 +755,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF86FF1-3AD8-4171-B889-2B73F9D90A89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -166,7 +774,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="692150"/>
+          <a:off x="266700" y="684530"/>
           <a:ext cx="882650" cy="882650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -222,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -257,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -431,31 +1039,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="10.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>1.23123123123123E+35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.23123123123123e+35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,63 +1080,711 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="102.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" ht="102.45" customHeight="1"/>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>45539.804988425924</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2">
+        <v>45539.8049884259</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="3:6">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="3:6">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C96:F103"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F80B650-3C71-4F45-B278-A21DCFCBEF1D}">
-  <dimension ref="B3:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:X112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="9:9">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="9:12">
+      <c r="I10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="9:12">
+      <c r="I11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="12:12">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="9:12">
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="5:18">
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18">
+      <c r="E15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="5:18">
+      <c r="E16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="5:18">
+      <c r="E17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="5:18">
+      <c r="E18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="5:18">
+      <c r="E19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="11:15">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16">
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="5:16">
+      <c r="E28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="5:16">
+      <c r="E29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="5:16">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="8:16">
+      <c r="H31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="9:15">
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="15:18">
+      <c r="O50" s="1"/>
+      <c r="R50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="15:18">
+      <c r="O51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="18:18">
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="15:18">
+      <c r="O53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="11:24">
+      <c r="K54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="X54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="11:24">
+      <c r="K55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R55" s="1"/>
+      <c r="U55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="11:24">
+      <c r="K56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="11:24">
+      <c r="K57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="11:24">
+      <c r="K58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="11:24">
+      <c r="K59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="17:21">
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="8:18">
+      <c r="H61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="8:18">
+      <c r="H62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="8:18">
+      <c r="H63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="8:18">
+      <c r="H64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="8:15">
+      <c r="H65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="8:22">
+      <c r="H66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="V66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="11:22">
+      <c r="K67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="Q67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="11:22">
+      <c r="K68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="11:22">
+      <c r="K69" s="1"/>
+      <c r="N69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="11:22">
+      <c r="K70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="14:22">
+      <c r="N71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="14:17">
+      <c r="N72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="14:14">
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="14:14">
+      <c r="N74" s="1"/>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="8:14">
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="14:17">
+      <c r="N88" s="1"/>
+      <c r="Q88" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17">
+      <c r="N89" s="1"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="17:17">
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="14:17">
+      <c r="N91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="10:20">
+      <c r="J93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="P93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="1"/>
+      <c r="T93" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="10:20">
+      <c r="J94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95" spans="10:20">
+      <c r="J95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="10:20">
+      <c r="J96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="10:20">
+      <c r="J97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="16:20">
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99" spans="7:17">
+      <c r="G99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="7:17">
+      <c r="G100" s="1"/>
+      <c r="L100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="7:17">
+      <c r="G101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="7:17">
+      <c r="G102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="7:14">
+      <c r="G103" s="1"/>
+      <c r="J103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="7:14">
+      <c r="G104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="10:16">
+      <c r="J105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="P105" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="10:16">
+      <c r="J106" s="1"/>
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="10:16">
+      <c r="J107" s="1"/>
+      <c r="M107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="10:16">
+      <c r="J108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="13:16">
+      <c r="M109" s="1"/>
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="13:16">
+      <c r="M110" s="1"/>
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="13:13">
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="13:13">
+      <c r="M112" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="43">
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="G99:G104"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="J92:J97"/>
+    <mergeCell ref="J103:J108"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="K27:K32"/>
+    <mergeCell ref="K54:K59"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="L100:L105"/>
+    <mergeCell ref="M62:M67"/>
+    <mergeCell ref="M107:M112"/>
+    <mergeCell ref="N69:N74"/>
+    <mergeCell ref="N84:N89"/>
+    <mergeCell ref="N91:N96"/>
+    <mergeCell ref="N99:N104"/>
+    <mergeCell ref="O15:O20"/>
+    <mergeCell ref="O46:O51"/>
+    <mergeCell ref="O53:O58"/>
+    <mergeCell ref="O61:O66"/>
+    <mergeCell ref="P26:P31"/>
+    <mergeCell ref="P93:P98"/>
+    <mergeCell ref="P105:P110"/>
+    <mergeCell ref="Q55:Q60"/>
+    <mergeCell ref="Q67:Q72"/>
+    <mergeCell ref="Q88:Q93"/>
+    <mergeCell ref="Q97:Q102"/>
+    <mergeCell ref="R14:R19"/>
+    <mergeCell ref="R50:R55"/>
+    <mergeCell ref="R59:R64"/>
+    <mergeCell ref="T93:T98"/>
+    <mergeCell ref="U55:U60"/>
+    <mergeCell ref="V66:V71"/>
+    <mergeCell ref="X54:X59"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>